--- a/doc/app测评bug 312.xlsx
+++ b/doc/app测评bug 312.xlsx
@@ -1,18 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sunny/Desktop/Work/绿城积分/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
   </bookViews>
   <sheets>
     <sheet name="APP端bug" sheetId="1" r:id="rId1"/>
     <sheet name="交互bug" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,122 +121,158 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>公益捐赠/任一项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法点击进入项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/个人设置/昵称&amp;手机号&amp;地区&amp;邮箱&amp;个人描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置昵称时，输入框跟随输入法框出现，且有滞后，点进去后蒙逼了半天才看到输入框，用户体验不友好，建议将输入框放在屏幕上部显眼处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/个人设置/昵称&amp;手机号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回显有部分问题，在点击编辑手机号之后，若没有输入就点击确定或点击空白区域返回，手机号就消失了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重新进入个人设置，号码又出现了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/个人设置/头像&amp;个人描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人描述在点击设置，保存后并未保存，重新进入时设置的个人描述消失了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/个人设置/地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议改为省/市/县（区）的选择模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/设置/密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码修改需要验证现在的密码之后方可修改。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我/设置/语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初步方案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汪磊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当在app上注册一个用户时，后台管理系统中生成一条会员信息，但当在app/我/个人设置/手机号 功能中修改保存新的手机号之后，app端显示的手机号并不会改变，但后台管理系统的会员列表中会增加一条姓名为当前注册手机号，手机号为编辑修改的手机号的记录。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消app端修改手机号的功能，且需确认后台管理系统中会员列表里“手机号”这栏的数据来源是否为注册手机号。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在app端注册的用户，通过后台管理系统删除会员信息后，依然可以在app端登录。且测试用例中有一用例（app端注册用户）出现进行后台删除操作后提示删除成功，该条记录的所有信息都显示为空，但该条记录不消失，多次删除也无济于事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检查后台系统访问数据库的权限和方式是否合理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：本文档有两个sheet请勿漏看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未复现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述不明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>新闻中，在滑动查看时，固定窗的位置在中间，严重影响查看方便，不利于用户情绪。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>公益捐赠/任一项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无法点击进入项目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/个人设置/昵称&amp;手机号&amp;地区&amp;邮箱&amp;个人描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置昵称时，输入框跟随输入法框出现，且有滞后，点进去后蒙逼了半天才看到输入框，用户体验不友好，建议将输入框放在屏幕上部显眼处。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/个人设置/昵称&amp;手机号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回显有部分问题，在点击编辑手机号之后，若没有输入就点击确定或点击空白区域返回，手机号就消失了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重新进入个人设置，号码又出现了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/个人设置/头像&amp;个人描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人描述在点击设置，保存后并未保存，重新进入时设置的个人描述消失了。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/个人设置/地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议改为省/市/县（区）的选择模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/设置/密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码修改需要验证现在的密码之后方可修改。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我/设置/语言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待开发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>问题描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初步方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汪磊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当在app上注册一个用户时，后台管理系统中生成一条会员信息，但当在app/我/个人设置/手机号 功能中修改保存新的手机号之后，app端显示的手机号并不会改变，但后台管理系统的会员列表中会增加一条姓名为当前注册手机号，手机号为编辑修改的手机号的记录。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消app端修改手机号的功能，且需确认后台管理系统中会员列表里“手机号”这栏的数据来源是否为注册手机号。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在app端注册的用户，通过后台管理系统删除会员信息后，依然可以在app端登录。且测试用例中有一用例（app端注册用户）出现进行后台删除操作后提示删除成功，该条记录的所有信息都显示为空，但该条记录不消失，多次删除也无济于事。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检查后台系统访问数据库的权限和方式是否合理。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：本文档有两个sheet请勿漏看</t>
+    <t>原型不明确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已解决</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -282,10 +329,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -568,38 +615,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="10.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
     <col min="4" max="4" width="14" style="1" customWidth="1"/>
     <col min="5" max="5" width="44.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="13.83203125" style="1" customWidth="1"/>
+    <col min="7" max="10" width="8.83203125" style="1"/>
+    <col min="11" max="11" width="12.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+    </row>
+    <row r="2" spans="1:11" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -630,8 +679,11 @@
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -652,8 +704,11 @@
         <v>13</v>
       </c>
       <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -674,8 +729,11 @@
         <v>13</v>
       </c>
       <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -696,8 +754,11 @@
         <v>18</v>
       </c>
       <c r="I5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="K5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -715,8 +776,11 @@
       </c>
       <c r="F6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="K6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -730,15 +794,18 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:10" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -749,18 +816,21 @@
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -771,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="1" t="s">
@@ -782,7 +852,7 @@
       </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -793,20 +863,23 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -817,18 +890,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>31</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -839,18 +915,21 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K12" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -861,18 +940,21 @@
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -883,16 +965,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I14" s="3"/>
+      <c r="K14" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -916,37 +1001,37 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="105" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -954,20 +1039,20 @@
         <v>43171</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="82.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -975,16 +1060,16 @@
         <v>43171</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1"/>
     </row>

--- a/doc/app测评bug 312.xlsx
+++ b/doc/app测评bug 312.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sunny/Desktop/Work/绿城积分/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunzhiwei/Desktop/绿城积分/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="19520"/>
   </bookViews>
   <sheets>
     <sheet name="APP端bug" sheetId="1" r:id="rId1"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未复现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>解决状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -266,6 +262,13 @@
   </si>
   <si>
     <t>已解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台问题</t>
+    <rPh sb="0" eb="1">
+      <t>hou'tai'wen'ti</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +621,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -680,7 +683,7 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -705,7 +708,7 @@
       </c>
       <c r="I3" s="3"/>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -730,7 +733,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="K4" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -755,7 +758,7 @@
       </c>
       <c r="I5" s="3"/>
       <c r="K5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -777,7 +780,7 @@
       <c r="F6" s="3"/>
       <c r="I6" s="3"/>
       <c r="K6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -794,7 +797,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
@@ -802,7 +805,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -827,7 +830,7 @@
       </c>
       <c r="I8" s="3"/>
       <c r="K8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -876,7 +879,7 @@
       </c>
       <c r="I10" s="3"/>
       <c r="K10" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -901,7 +904,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="K11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -926,7 +929,7 @@
       </c>
       <c r="I12" s="3"/>
       <c r="K12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -951,7 +954,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="K13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -976,7 +979,7 @@
       </c>
       <c r="I14" s="3"/>
       <c r="K14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
